--- a/resources/BotData.xlsx
+++ b/resources/BotData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanth\Desktop\RPA PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA_Assignment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9B3D8-0ACB-4A24-A70B-239800A33371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75492BB-C67C-4670-BCBF-438561D88F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mappings" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>HoursToFix</t>
   </si>
   <si>
-    <t>user1.broadband@gmail.com</t>
-  </si>
-  <si>
     <t>abc@ex.com</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>lmn@ex.com</t>
+  </si>
+  <si>
+    <t>xyz@ex.com</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D6ACCF-7BC6-462E-8413-44F2FB58534F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F15A9A-099A-40D8-9783-F3C6489B60AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1323,7 @@
         <v>11223301</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>11223302</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>11223303</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1347,7 @@
         <v>11223304</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>11223305</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,17 +1363,17 @@
         <v>11223306</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1A0E36C0-A58D-434D-A77F-BA0FD8D7F3AF}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0E7EF934-1590-43DD-AF13-C8005EEBA101}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{8C2C4699-E39F-4F17-BD19-55D1D6D6025E}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{5620A51D-1CC9-4D7B-99DB-069B5D9F53EE}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{38EAE2D0-B75C-4A24-A422-E9BB6EFC0C36}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{1FC7E6EC-D9D4-410A-BB0E-894432AE8F54}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0E7EF934-1590-43DD-AF13-C8005EEBA101}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{8C2C4699-E39F-4F17-BD19-55D1D6D6025E}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{5620A51D-1CC9-4D7B-99DB-069B5D9F53EE}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{38EAE2D0-B75C-4A24-A422-E9BB6EFC0C36}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{1FC7E6EC-D9D4-410A-BB0E-894432AE8F54}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{75EA5CD5-4274-45E5-B853-C6E432EB3D21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
